--- a/SchedulingData/dynamic11/pso/scheduling1_6.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_6.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,102 +481,102 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41.32</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>84.12</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>22.928</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>116.32</v>
       </c>
       <c r="E4" t="n">
-        <v>26.48</v>
+        <v>22.168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>41.32</v>
       </c>
       <c r="D5" t="n">
-        <v>55.28</v>
+        <v>102.98</v>
       </c>
       <c r="E5" t="n">
-        <v>26.152</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>79.78</v>
+        <v>41.2</v>
       </c>
       <c r="E6" t="n">
-        <v>26.152</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.6</v>
+        <v>49.12</v>
       </c>
       <c r="E7" t="n">
-        <v>21.84</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,56 +584,56 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>118.2</v>
+        <v>61.6</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>114.6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>166.46</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
-        <v>17.784</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>102.98</v>
       </c>
       <c r="D10" t="n">
-        <v>65.90000000000001</v>
+        <v>183.98</v>
       </c>
       <c r="E10" t="n">
-        <v>26.1</v>
+        <v>18.032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,127 +641,127 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>65.90000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="D11" t="n">
-        <v>143.82</v>
+        <v>114.62</v>
       </c>
       <c r="E11" t="n">
-        <v>22.908</v>
+        <v>22.328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>143.82</v>
+        <v>116.32</v>
       </c>
       <c r="D12" t="n">
-        <v>207.62</v>
+        <v>159.98</v>
       </c>
       <c r="E12" t="n">
-        <v>18.168</v>
+        <v>19.432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>79.78</v>
+        <v>41.2</v>
       </c>
       <c r="D13" t="n">
-        <v>145.78</v>
+        <v>104.7</v>
       </c>
       <c r="E13" t="n">
-        <v>21.672</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>56.26</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>26.544</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>84.12</v>
+        <v>159.98</v>
       </c>
       <c r="D15" t="n">
-        <v>155.22</v>
+        <v>207.98</v>
       </c>
       <c r="E15" t="n">
-        <v>18.448</v>
+        <v>15.272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>155.22</v>
+        <v>104.7</v>
       </c>
       <c r="D16" t="n">
-        <v>208.64</v>
+        <v>151.66</v>
       </c>
       <c r="E16" t="n">
-        <v>14.236</v>
+        <v>19.764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>166.46</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>200.22</v>
+        <v>143.24</v>
       </c>
       <c r="E17" t="n">
-        <v>15.048</v>
+        <v>18.636</v>
       </c>
     </row>
     <row r="18">
@@ -770,231 +770,231 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>207.62</v>
+        <v>151.66</v>
       </c>
       <c r="D18" t="n">
-        <v>245.32</v>
+        <v>192.44</v>
       </c>
       <c r="E18" t="n">
-        <v>15.528</v>
+        <v>16.816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118.2</v>
+        <v>207.98</v>
       </c>
       <c r="D19" t="n">
-        <v>179.48</v>
+        <v>277.66</v>
       </c>
       <c r="E19" t="n">
-        <v>18.472</v>
+        <v>11.424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>200.22</v>
+        <v>143.24</v>
       </c>
       <c r="D20" t="n">
-        <v>239.22</v>
+        <v>193.12</v>
       </c>
       <c r="E20" t="n">
-        <v>12.288</v>
+        <v>14.788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>56.26</v>
+        <v>183.98</v>
       </c>
       <c r="D21" t="n">
-        <v>128.26</v>
+        <v>250.16</v>
       </c>
       <c r="E21" t="n">
-        <v>23.464</v>
+        <v>14.504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>179.48</v>
+        <v>114.62</v>
       </c>
       <c r="D22" t="n">
-        <v>293.28</v>
+        <v>178.42</v>
       </c>
       <c r="E22" t="n">
-        <v>13.672</v>
+        <v>17.588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>208.64</v>
+        <v>49.12</v>
       </c>
       <c r="D23" t="n">
-        <v>262.04</v>
+        <v>124.82</v>
       </c>
       <c r="E23" t="n">
-        <v>10.516</v>
+        <v>21.308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>239.22</v>
+        <v>192.44</v>
       </c>
       <c r="D24" t="n">
-        <v>305.16</v>
+        <v>260.26</v>
       </c>
       <c r="E24" t="n">
-        <v>8.804</v>
+        <v>13.644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>128.26</v>
+        <v>124.82</v>
       </c>
       <c r="D25" t="n">
-        <v>188.76</v>
+        <v>183.12</v>
       </c>
       <c r="E25" t="n">
-        <v>20.044</v>
+        <v>17.588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>305.16</v>
+        <v>183.12</v>
       </c>
       <c r="D26" t="n">
-        <v>360.64</v>
+        <v>235.52</v>
       </c>
       <c r="E26" t="n">
-        <v>5.856</v>
+        <v>14.948</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>262.04</v>
+        <v>235.52</v>
       </c>
       <c r="D27" t="n">
-        <v>307.88</v>
+        <v>310.42</v>
       </c>
       <c r="E27" t="n">
-        <v>8.052</v>
+        <v>11.048</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>188.76</v>
+        <v>250.16</v>
       </c>
       <c r="D28" t="n">
-        <v>241.58</v>
+        <v>310.6</v>
       </c>
       <c r="E28" t="n">
-        <v>16.872</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>145.78</v>
+        <v>178.42</v>
       </c>
       <c r="D29" t="n">
-        <v>218.78</v>
+        <v>250.72</v>
       </c>
       <c r="E29" t="n">
-        <v>17.512</v>
+        <v>13.948</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,32 +1002,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>245.32</v>
+        <v>193.12</v>
       </c>
       <c r="D30" t="n">
-        <v>288.88</v>
+        <v>246.68</v>
       </c>
       <c r="E30" t="n">
-        <v>12.792</v>
+        <v>12.052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>241.58</v>
+        <v>260.26</v>
       </c>
       <c r="D31" t="n">
-        <v>303.54</v>
+        <v>306.22</v>
       </c>
       <c r="E31" t="n">
-        <v>12.816</v>
+        <v>10.188</v>
       </c>
     </row>
   </sheetData>
